--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-28.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="779">
   <si>
     <t>League</t>
   </si>
@@ -2308,90 +2308,6 @@
     <t>Comerciantes Unidos</t>
   </si>
   <si>
-    <t>33215975</t>
-  </si>
-  <si>
-    <t>33227655</t>
-  </si>
-  <si>
-    <t>33230233</t>
-  </si>
-  <si>
-    <t>33211610</t>
-  </si>
-  <si>
-    <t>33215649</t>
-  </si>
-  <si>
-    <t>33211597</t>
-  </si>
-  <si>
-    <t>33226311</t>
-  </si>
-  <si>
-    <t>33226343</t>
-  </si>
-  <si>
-    <t>33220085</t>
-  </si>
-  <si>
-    <t>33218319</t>
-  </si>
-  <si>
-    <t>33219155</t>
-  </si>
-  <si>
-    <t>33213780</t>
-  </si>
-  <si>
-    <t>33218355</t>
-  </si>
-  <si>
-    <t>33219141</t>
-  </si>
-  <si>
-    <t>33219133</t>
-  </si>
-  <si>
-    <t>33220078</t>
-  </si>
-  <si>
-    <t>33220094</t>
-  </si>
-  <si>
-    <t>33219131</t>
-  </si>
-  <si>
-    <t>33220080</t>
-  </si>
-  <si>
-    <t>33218356</t>
-  </si>
-  <si>
-    <t>33215351</t>
-  </si>
-  <si>
-    <t>33211630</t>
-  </si>
-  <si>
-    <t>33213826</t>
-  </si>
-  <si>
-    <t>33215967</t>
-  </si>
-  <si>
-    <t>33227648</t>
-  </si>
-  <si>
-    <t>33226350</t>
-  </si>
-  <si>
-    <t>33193195</t>
-  </si>
-  <si>
-    <t>33193199</t>
-  </si>
-  <si>
     <t>33215606</t>
   </si>
   <si>
@@ -2401,90 +2317,6 @@
     <t>33215362</t>
   </si>
   <si>
-    <t>1.228003985</t>
-  </si>
-  <si>
-    <t>1.228182008</t>
-  </si>
-  <si>
-    <t>1.228228434</t>
-  </si>
-  <si>
-    <t>1.227924252</t>
-  </si>
-  <si>
-    <t>1.228001346</t>
-  </si>
-  <si>
-    <t>1.227924360</t>
-  </si>
-  <si>
-    <t>1.228164330</t>
-  </si>
-  <si>
-    <t>1.228164421</t>
-  </si>
-  <si>
-    <t>1.228064262</t>
-  </si>
-  <si>
-    <t>1.228044904</t>
-  </si>
-  <si>
-    <t>1.228057882</t>
-  </si>
-  <si>
-    <t>1.227963148</t>
-  </si>
-  <si>
-    <t>1.228046202</t>
-  </si>
-  <si>
-    <t>1.228057972</t>
-  </si>
-  <si>
-    <t>1.228058062</t>
-  </si>
-  <si>
-    <t>1.228064546</t>
-  </si>
-  <si>
-    <t>1.228064171</t>
-  </si>
-  <si>
-    <t>1.228058152</t>
-  </si>
-  <si>
-    <t>1.228064352</t>
-  </si>
-  <si>
-    <t>1.228046112</t>
-  </si>
-  <si>
-    <t>1.227992903</t>
-  </si>
-  <si>
-    <t>1.227924794</t>
-  </si>
-  <si>
-    <t>1.227964405</t>
-  </si>
-  <si>
-    <t>1.228004524</t>
-  </si>
-  <si>
-    <t>1.228182098</t>
-  </si>
-  <si>
-    <t>1.228244558</t>
-  </si>
-  <si>
-    <t>1.227621419</t>
-  </si>
-  <si>
-    <t>1.227621245</t>
-  </si>
-  <si>
     <t>1.228002045</t>
   </si>
   <si>
@@ -2494,90 +2326,6 @@
     <t>1.227992453</t>
   </si>
   <si>
-    <t>1.228004071</t>
-  </si>
-  <si>
-    <t>1.228182053</t>
-  </si>
-  <si>
-    <t>1.228228479</t>
-  </si>
-  <si>
-    <t>1.227924262</t>
-  </si>
-  <si>
-    <t>1.228001356</t>
-  </si>
-  <si>
-    <t>1.227924370</t>
-  </si>
-  <si>
-    <t>1.228164333</t>
-  </si>
-  <si>
-    <t>1.228164424</t>
-  </si>
-  <si>
-    <t>1.228064307</t>
-  </si>
-  <si>
-    <t>1.228044907</t>
-  </si>
-  <si>
-    <t>1.228057927</t>
-  </si>
-  <si>
-    <t>1.227963193</t>
-  </si>
-  <si>
-    <t>1.228046248</t>
-  </si>
-  <si>
-    <t>1.228058017</t>
-  </si>
-  <si>
-    <t>1.228058107</t>
-  </si>
-  <si>
-    <t>1.228064591</t>
-  </si>
-  <si>
-    <t>1.228064216</t>
-  </si>
-  <si>
-    <t>1.228058197</t>
-  </si>
-  <si>
-    <t>1.228064397</t>
-  </si>
-  <si>
-    <t>1.228046157</t>
-  </si>
-  <si>
-    <t>1.227992948</t>
-  </si>
-  <si>
-    <t>1.227924804</t>
-  </si>
-  <si>
-    <t>1.227964450</t>
-  </si>
-  <si>
-    <t>1.228004569</t>
-  </si>
-  <si>
-    <t>1.228182143</t>
-  </si>
-  <si>
-    <t>1.228244561</t>
-  </si>
-  <si>
-    <t>1.227621464</t>
-  </si>
-  <si>
-    <t>1.227621291</t>
-  </si>
-  <si>
     <t>1.228002090</t>
   </si>
   <si>
@@ -2587,90 +2335,6 @@
     <t>1.227992498</t>
   </si>
   <si>
-    <t>1.228004138</t>
-  </si>
-  <si>
-    <t>1.228182092</t>
-  </si>
-  <si>
-    <t>1.228228518</t>
-  </si>
-  <si>
-    <t>1.227924251</t>
-  </si>
-  <si>
-    <t>1.228001345</t>
-  </si>
-  <si>
-    <t>1.227924359</t>
-  </si>
-  <si>
-    <t>1.228164377</t>
-  </si>
-  <si>
-    <t>1.228164468</t>
-  </si>
-  <si>
-    <t>1.228064346</t>
-  </si>
-  <si>
-    <t>1.228044951</t>
-  </si>
-  <si>
-    <t>1.228057966</t>
-  </si>
-  <si>
-    <t>1.227963232</t>
-  </si>
-  <si>
-    <t>1.228046287</t>
-  </si>
-  <si>
-    <t>1.228058056</t>
-  </si>
-  <si>
-    <t>1.228058146</t>
-  </si>
-  <si>
-    <t>1.228064630</t>
-  </si>
-  <si>
-    <t>1.228064255</t>
-  </si>
-  <si>
-    <t>1.228058236</t>
-  </si>
-  <si>
-    <t>1.228064436</t>
-  </si>
-  <si>
-    <t>1.228046196</t>
-  </si>
-  <si>
-    <t>1.227992987</t>
-  </si>
-  <si>
-    <t>1.227924793</t>
-  </si>
-  <si>
-    <t>1.227964489</t>
-  </si>
-  <si>
-    <t>1.228004608</t>
-  </si>
-  <si>
-    <t>1.228182182</t>
-  </si>
-  <si>
-    <t>1.228244606</t>
-  </si>
-  <si>
-    <t>1.227621503</t>
-  </si>
-  <si>
-    <t>1.227621331</t>
-  </si>
-  <si>
     <t>1.228002129</t>
   </si>
   <si>
@@ -2678,90 +2342,6 @@
   </si>
   <si>
     <t>1.227992537</t>
-  </si>
-  <si>
-    <t>1.228004002</t>
-  </si>
-  <si>
-    <t>1.228182017</t>
-  </si>
-  <si>
-    <t>1.228228443</t>
-  </si>
-  <si>
-    <t>1.227924261</t>
-  </si>
-  <si>
-    <t>1.228001355</t>
-  </si>
-  <si>
-    <t>1.227924369</t>
-  </si>
-  <si>
-    <t>1.228164378</t>
-  </si>
-  <si>
-    <t>1.228164469</t>
-  </si>
-  <si>
-    <t>1.228064271</t>
-  </si>
-  <si>
-    <t>1.228044952</t>
-  </si>
-  <si>
-    <t>1.228057891</t>
-  </si>
-  <si>
-    <t>1.227963157</t>
-  </si>
-  <si>
-    <t>1.228046211</t>
-  </si>
-  <si>
-    <t>1.228057981</t>
-  </si>
-  <si>
-    <t>1.228058071</t>
-  </si>
-  <si>
-    <t>1.228064555</t>
-  </si>
-  <si>
-    <t>1.228064180</t>
-  </si>
-  <si>
-    <t>1.228058161</t>
-  </si>
-  <si>
-    <t>1.228064361</t>
-  </si>
-  <si>
-    <t>1.228046121</t>
-  </si>
-  <si>
-    <t>1.227992912</t>
-  </si>
-  <si>
-    <t>1.227924803</t>
-  </si>
-  <si>
-    <t>1.227964414</t>
-  </si>
-  <si>
-    <t>1.228004533</t>
-  </si>
-  <si>
-    <t>1.228182107</t>
-  </si>
-  <si>
-    <t>1.228244607</t>
-  </si>
-  <si>
-    <t>1.227621428</t>
-  </si>
-  <si>
-    <t>1.227621254</t>
   </si>
   <si>
     <t>1.228002054</t>
@@ -54132,8 +53712,8 @@
       <c r="BE259">
         <v>1000</v>
       </c>
-      <c r="BF259" t="s">
-        <v>764</v>
+      <c r="BF259">
+        <v>33215975</v>
       </c>
       <c r="BG259">
         <v>2329297</v>
@@ -54144,17 +53724,17 @@
       <c r="BI259">
         <v>58805</v>
       </c>
-      <c r="BJ259" t="s">
-        <v>795</v>
-      </c>
-      <c r="BK259" t="s">
-        <v>826</v>
-      </c>
-      <c r="BL259" t="s">
-        <v>857</v>
-      </c>
-      <c r="BM259" t="s">
-        <v>888</v>
+      <c r="BJ259">
+        <v>1.228003985</v>
+      </c>
+      <c r="BK259">
+        <v>1.228004071</v>
+      </c>
+      <c r="BL259">
+        <v>1.228004138</v>
+      </c>
+      <c r="BM259">
+        <v>1.228004002</v>
       </c>
     </row>
     <row r="260" spans="1:65">
@@ -54329,8 +53909,8 @@
       <c r="BE260">
         <v>1000</v>
       </c>
-      <c r="BF260" t="s">
-        <v>765</v>
+      <c r="BF260">
+        <v>33227655</v>
       </c>
       <c r="BG260">
         <v>893607</v>
@@ -54341,17 +53921,17 @@
       <c r="BI260">
         <v>58805</v>
       </c>
-      <c r="BJ260" t="s">
-        <v>796</v>
-      </c>
-      <c r="BK260" t="s">
-        <v>827</v>
-      </c>
-      <c r="BL260" t="s">
-        <v>858</v>
-      </c>
-      <c r="BM260" t="s">
-        <v>889</v>
+      <c r="BJ260">
+        <v>1.228182008</v>
+      </c>
+      <c r="BK260">
+        <v>1.228182053</v>
+      </c>
+      <c r="BL260">
+        <v>1.228182092</v>
+      </c>
+      <c r="BM260">
+        <v>1.228182017</v>
       </c>
     </row>
     <row r="261" spans="1:65">
@@ -54526,8 +54106,8 @@
       <c r="BE261">
         <v>1000</v>
       </c>
-      <c r="BF261" t="s">
-        <v>766</v>
+      <c r="BF261">
+        <v>33230233</v>
       </c>
       <c r="BG261">
         <v>7176792</v>
@@ -54538,17 +54118,17 @@
       <c r="BI261">
         <v>58805</v>
       </c>
-      <c r="BJ261" t="s">
-        <v>797</v>
-      </c>
-      <c r="BK261" t="s">
-        <v>828</v>
-      </c>
-      <c r="BL261" t="s">
-        <v>859</v>
-      </c>
-      <c r="BM261" t="s">
-        <v>890</v>
+      <c r="BJ261">
+        <v>1.228228434</v>
+      </c>
+      <c r="BK261">
+        <v>1.228228479</v>
+      </c>
+      <c r="BL261">
+        <v>1.228228518</v>
+      </c>
+      <c r="BM261">
+        <v>1.228228443</v>
       </c>
     </row>
     <row r="262" spans="1:65">
@@ -54723,8 +54303,8 @@
       <c r="BE262">
         <v>1000</v>
       </c>
-      <c r="BF262" t="s">
-        <v>767</v>
+      <c r="BF262">
+        <v>33211610</v>
       </c>
       <c r="BG262">
         <v>198144</v>
@@ -54735,17 +54315,17 @@
       <c r="BI262">
         <v>58805</v>
       </c>
-      <c r="BJ262" t="s">
-        <v>798</v>
-      </c>
-      <c r="BK262" t="s">
-        <v>829</v>
-      </c>
-      <c r="BL262" t="s">
-        <v>860</v>
-      </c>
-      <c r="BM262" t="s">
-        <v>891</v>
+      <c r="BJ262">
+        <v>1.227924252</v>
+      </c>
+      <c r="BK262">
+        <v>1.227924262</v>
+      </c>
+      <c r="BL262">
+        <v>1.227924251</v>
+      </c>
+      <c r="BM262">
+        <v>1.227924261</v>
       </c>
     </row>
     <row r="263" spans="1:65">
@@ -54920,8 +54500,8 @@
       <c r="BE263">
         <v>1000</v>
       </c>
-      <c r="BF263" t="s">
-        <v>768</v>
+      <c r="BF263">
+        <v>33215649</v>
       </c>
       <c r="BG263">
         <v>198131</v>
@@ -54932,17 +54512,17 @@
       <c r="BI263">
         <v>58805</v>
       </c>
-      <c r="BJ263" t="s">
-        <v>799</v>
-      </c>
-      <c r="BK263" t="s">
-        <v>830</v>
-      </c>
-      <c r="BL263" t="s">
-        <v>861</v>
-      </c>
-      <c r="BM263" t="s">
-        <v>892</v>
+      <c r="BJ263">
+        <v>1.228001346</v>
+      </c>
+      <c r="BK263">
+        <v>1.228001356</v>
+      </c>
+      <c r="BL263">
+        <v>1.228001345</v>
+      </c>
+      <c r="BM263">
+        <v>1.228001355</v>
       </c>
     </row>
     <row r="264" spans="1:65">
@@ -55117,8 +54697,8 @@
       <c r="BE264">
         <v>1000</v>
       </c>
-      <c r="BF264" t="s">
-        <v>769</v>
+      <c r="BF264">
+        <v>33211597</v>
       </c>
       <c r="BG264">
         <v>5287007</v>
@@ -55129,17 +54709,17 @@
       <c r="BI264">
         <v>58805</v>
       </c>
-      <c r="BJ264" t="s">
-        <v>800</v>
-      </c>
-      <c r="BK264" t="s">
-        <v>831</v>
-      </c>
-      <c r="BL264" t="s">
-        <v>862</v>
-      </c>
-      <c r="BM264" t="s">
-        <v>893</v>
+      <c r="BJ264">
+        <v>1.22792436</v>
+      </c>
+      <c r="BK264">
+        <v>1.22792437</v>
+      </c>
+      <c r="BL264">
+        <v>1.227924359</v>
+      </c>
+      <c r="BM264">
+        <v>1.227924369</v>
       </c>
     </row>
     <row r="265" spans="1:65">
@@ -55314,8 +54894,8 @@
       <c r="BE265">
         <v>1000</v>
       </c>
-      <c r="BF265" t="s">
-        <v>770</v>
+      <c r="BF265">
+        <v>33226311</v>
       </c>
       <c r="BG265">
         <v>65098587</v>
@@ -55326,17 +54906,17 @@
       <c r="BI265">
         <v>58805</v>
       </c>
-      <c r="BJ265" t="s">
-        <v>801</v>
-      </c>
-      <c r="BK265" t="s">
-        <v>832</v>
-      </c>
-      <c r="BL265" t="s">
-        <v>863</v>
-      </c>
-      <c r="BM265" t="s">
-        <v>894</v>
+      <c r="BJ265">
+        <v>1.22816433</v>
+      </c>
+      <c r="BK265">
+        <v>1.228164333</v>
+      </c>
+      <c r="BL265">
+        <v>1.228164377</v>
+      </c>
+      <c r="BM265">
+        <v>1.228164378</v>
       </c>
     </row>
     <row r="266" spans="1:65">
@@ -55511,8 +55091,8 @@
       <c r="BE266">
         <v>1000</v>
       </c>
-      <c r="BF266" t="s">
-        <v>771</v>
+      <c r="BF266">
+        <v>33226343</v>
       </c>
       <c r="BG266">
         <v>489163</v>
@@ -55523,17 +55103,17 @@
       <c r="BI266">
         <v>58805</v>
       </c>
-      <c r="BJ266" t="s">
-        <v>802</v>
-      </c>
-      <c r="BK266" t="s">
-        <v>833</v>
-      </c>
-      <c r="BL266" t="s">
-        <v>864</v>
-      </c>
-      <c r="BM266" t="s">
-        <v>895</v>
+      <c r="BJ266">
+        <v>1.228164421</v>
+      </c>
+      <c r="BK266">
+        <v>1.228164424</v>
+      </c>
+      <c r="BL266">
+        <v>1.228164468</v>
+      </c>
+      <c r="BM266">
+        <v>1.228164469</v>
       </c>
     </row>
     <row r="267" spans="1:65">
@@ -55708,8 +55288,8 @@
       <c r="BE267">
         <v>1000</v>
       </c>
-      <c r="BF267" t="s">
-        <v>772</v>
+      <c r="BF267">
+        <v>33220085</v>
       </c>
       <c r="BG267">
         <v>7227021</v>
@@ -55720,17 +55300,17 @@
       <c r="BI267">
         <v>58805</v>
       </c>
-      <c r="BJ267" t="s">
-        <v>803</v>
-      </c>
-      <c r="BK267" t="s">
-        <v>834</v>
-      </c>
-      <c r="BL267" t="s">
-        <v>865</v>
-      </c>
-      <c r="BM267" t="s">
-        <v>896</v>
+      <c r="BJ267">
+        <v>1.228064262</v>
+      </c>
+      <c r="BK267">
+        <v>1.228064307</v>
+      </c>
+      <c r="BL267">
+        <v>1.228064346</v>
+      </c>
+      <c r="BM267">
+        <v>1.228064271</v>
       </c>
     </row>
     <row r="268" spans="1:65">
@@ -55905,8 +55485,8 @@
       <c r="BE268">
         <v>1000</v>
       </c>
-      <c r="BF268" t="s">
-        <v>773</v>
+      <c r="BF268">
+        <v>33218319</v>
       </c>
       <c r="BG268">
         <v>68627770</v>
@@ -55917,17 +55497,17 @@
       <c r="BI268">
         <v>58805</v>
       </c>
-      <c r="BJ268" t="s">
-        <v>804</v>
-      </c>
-      <c r="BK268" t="s">
-        <v>835</v>
-      </c>
-      <c r="BL268" t="s">
-        <v>866</v>
-      </c>
-      <c r="BM268" t="s">
-        <v>897</v>
+      <c r="BJ268">
+        <v>1.228044904</v>
+      </c>
+      <c r="BK268">
+        <v>1.228044907</v>
+      </c>
+      <c r="BL268">
+        <v>1.228044951</v>
+      </c>
+      <c r="BM268">
+        <v>1.228044952</v>
       </c>
     </row>
     <row r="269" spans="1:65">
@@ -56102,8 +55682,8 @@
       <c r="BE269">
         <v>1000</v>
       </c>
-      <c r="BF269" t="s">
-        <v>774</v>
+      <c r="BF269">
+        <v>33219155</v>
       </c>
       <c r="BG269">
         <v>7055314</v>
@@ -56114,17 +55694,17 @@
       <c r="BI269">
         <v>58805</v>
       </c>
-      <c r="BJ269" t="s">
-        <v>805</v>
-      </c>
-      <c r="BK269" t="s">
-        <v>836</v>
-      </c>
-      <c r="BL269" t="s">
-        <v>867</v>
-      </c>
-      <c r="BM269" t="s">
-        <v>898</v>
+      <c r="BJ269">
+        <v>1.228057882</v>
+      </c>
+      <c r="BK269">
+        <v>1.228057927</v>
+      </c>
+      <c r="BL269">
+        <v>1.228057966</v>
+      </c>
+      <c r="BM269">
+        <v>1.228057891</v>
       </c>
     </row>
     <row r="270" spans="1:65">
@@ -56299,8 +55879,8 @@
       <c r="BE270">
         <v>1000</v>
       </c>
-      <c r="BF270" t="s">
-        <v>775</v>
+      <c r="BF270">
+        <v>33213780</v>
       </c>
       <c r="BG270">
         <v>330239</v>
@@ -56311,17 +55891,17 @@
       <c r="BI270">
         <v>58805</v>
       </c>
-      <c r="BJ270" t="s">
-        <v>806</v>
-      </c>
-      <c r="BK270" t="s">
-        <v>837</v>
-      </c>
-      <c r="BL270" t="s">
-        <v>868</v>
-      </c>
-      <c r="BM270" t="s">
-        <v>899</v>
+      <c r="BJ270">
+        <v>1.227963148</v>
+      </c>
+      <c r="BK270">
+        <v>1.227963193</v>
+      </c>
+      <c r="BL270">
+        <v>1.227963232</v>
+      </c>
+      <c r="BM270">
+        <v>1.227963157</v>
       </c>
     </row>
     <row r="271" spans="1:65">
@@ -56496,8 +56076,8 @@
       <c r="BE271">
         <v>1000</v>
       </c>
-      <c r="BF271" t="s">
-        <v>776</v>
+      <c r="BF271">
+        <v>33218355</v>
       </c>
       <c r="BG271">
         <v>5310328</v>
@@ -56508,17 +56088,17 @@
       <c r="BI271">
         <v>58805</v>
       </c>
-      <c r="BJ271" t="s">
-        <v>807</v>
-      </c>
-      <c r="BK271" t="s">
-        <v>838</v>
-      </c>
-      <c r="BL271" t="s">
-        <v>869</v>
-      </c>
-      <c r="BM271" t="s">
-        <v>900</v>
+      <c r="BJ271">
+        <v>1.228046202</v>
+      </c>
+      <c r="BK271">
+        <v>1.228046248</v>
+      </c>
+      <c r="BL271">
+        <v>1.228046287</v>
+      </c>
+      <c r="BM271">
+        <v>1.228046211</v>
       </c>
     </row>
     <row r="272" spans="1:65">
@@ -56693,8 +56273,8 @@
       <c r="BE272">
         <v>1000</v>
       </c>
-      <c r="BF272" t="s">
-        <v>777</v>
+      <c r="BF272">
+        <v>33219141</v>
       </c>
       <c r="BG272">
         <v>816112</v>
@@ -56705,17 +56285,17 @@
       <c r="BI272">
         <v>58805</v>
       </c>
-      <c r="BJ272" t="s">
-        <v>808</v>
-      </c>
-      <c r="BK272" t="s">
-        <v>839</v>
-      </c>
-      <c r="BL272" t="s">
-        <v>870</v>
-      </c>
-      <c r="BM272" t="s">
-        <v>901</v>
+      <c r="BJ272">
+        <v>1.228057972</v>
+      </c>
+      <c r="BK272">
+        <v>1.228058017</v>
+      </c>
+      <c r="BL272">
+        <v>1.228058056</v>
+      </c>
+      <c r="BM272">
+        <v>1.228057981</v>
       </c>
     </row>
     <row r="273" spans="1:65">
@@ -56890,8 +56470,8 @@
       <c r="BE273">
         <v>1000</v>
       </c>
-      <c r="BF273" t="s">
-        <v>778</v>
+      <c r="BF273">
+        <v>33219133</v>
       </c>
       <c r="BG273">
         <v>8717595</v>
@@ -56902,17 +56482,17 @@
       <c r="BI273">
         <v>58805</v>
       </c>
-      <c r="BJ273" t="s">
-        <v>809</v>
-      </c>
-      <c r="BK273" t="s">
-        <v>840</v>
-      </c>
-      <c r="BL273" t="s">
-        <v>871</v>
-      </c>
-      <c r="BM273" t="s">
-        <v>902</v>
+      <c r="BJ273">
+        <v>1.228058062</v>
+      </c>
+      <c r="BK273">
+        <v>1.228058107</v>
+      </c>
+      <c r="BL273">
+        <v>1.228058146</v>
+      </c>
+      <c r="BM273">
+        <v>1.228058071</v>
       </c>
     </row>
     <row r="274" spans="1:65">
@@ -57087,8 +56667,8 @@
       <c r="BE274">
         <v>1000</v>
       </c>
-      <c r="BF274" t="s">
-        <v>779</v>
+      <c r="BF274">
+        <v>33220078</v>
       </c>
       <c r="BG274">
         <v>900849</v>
@@ -57099,17 +56679,17 @@
       <c r="BI274">
         <v>58805</v>
       </c>
-      <c r="BJ274" t="s">
-        <v>810</v>
-      </c>
-      <c r="BK274" t="s">
-        <v>841</v>
-      </c>
-      <c r="BL274" t="s">
-        <v>872</v>
-      </c>
-      <c r="BM274" t="s">
-        <v>903</v>
+      <c r="BJ274">
+        <v>1.228064546</v>
+      </c>
+      <c r="BK274">
+        <v>1.228064591</v>
+      </c>
+      <c r="BL274">
+        <v>1.22806463</v>
+      </c>
+      <c r="BM274">
+        <v>1.228064555</v>
       </c>
     </row>
     <row r="275" spans="1:65">
@@ -57284,8 +56864,8 @@
       <c r="BE275">
         <v>1000</v>
       </c>
-      <c r="BF275" t="s">
-        <v>780</v>
+      <c r="BF275">
+        <v>33220094</v>
       </c>
       <c r="BG275">
         <v>328690</v>
@@ -57296,17 +56876,17 @@
       <c r="BI275">
         <v>58805</v>
       </c>
-      <c r="BJ275" t="s">
-        <v>811</v>
-      </c>
-      <c r="BK275" t="s">
-        <v>842</v>
-      </c>
-      <c r="BL275" t="s">
-        <v>873</v>
-      </c>
-      <c r="BM275" t="s">
-        <v>904</v>
+      <c r="BJ275">
+        <v>1.228064171</v>
+      </c>
+      <c r="BK275">
+        <v>1.228064216</v>
+      </c>
+      <c r="BL275">
+        <v>1.228064255</v>
+      </c>
+      <c r="BM275">
+        <v>1.22806418</v>
       </c>
     </row>
     <row r="276" spans="1:65">
@@ -57481,8 +57061,8 @@
       <c r="BE276">
         <v>1000</v>
       </c>
-      <c r="BF276" t="s">
-        <v>781</v>
+      <c r="BF276">
+        <v>33219131</v>
       </c>
       <c r="BG276">
         <v>5180320</v>
@@ -57493,17 +57073,17 @@
       <c r="BI276">
         <v>58805</v>
       </c>
-      <c r="BJ276" t="s">
-        <v>812</v>
-      </c>
-      <c r="BK276" t="s">
-        <v>843</v>
-      </c>
-      <c r="BL276" t="s">
-        <v>874</v>
-      </c>
-      <c r="BM276" t="s">
-        <v>905</v>
+      <c r="BJ276">
+        <v>1.228058152</v>
+      </c>
+      <c r="BK276">
+        <v>1.228058197</v>
+      </c>
+      <c r="BL276">
+        <v>1.228058236</v>
+      </c>
+      <c r="BM276">
+        <v>1.228058161</v>
       </c>
     </row>
     <row r="277" spans="1:65">
@@ -57678,8 +57258,8 @@
       <c r="BE277">
         <v>1000</v>
       </c>
-      <c r="BF277" t="s">
-        <v>782</v>
+      <c r="BF277">
+        <v>33220080</v>
       </c>
       <c r="BG277">
         <v>4082025</v>
@@ -57690,17 +57270,17 @@
       <c r="BI277">
         <v>58805</v>
       </c>
-      <c r="BJ277" t="s">
-        <v>813</v>
-      </c>
-      <c r="BK277" t="s">
-        <v>844</v>
-      </c>
-      <c r="BL277" t="s">
-        <v>875</v>
-      </c>
-      <c r="BM277" t="s">
-        <v>906</v>
+      <c r="BJ277">
+        <v>1.228064352</v>
+      </c>
+      <c r="BK277">
+        <v>1.228064397</v>
+      </c>
+      <c r="BL277">
+        <v>1.228064436</v>
+      </c>
+      <c r="BM277">
+        <v>1.228064361</v>
       </c>
     </row>
     <row r="278" spans="1:65">
@@ -57875,8 +57455,8 @@
       <c r="BE278">
         <v>1000</v>
       </c>
-      <c r="BF278" t="s">
-        <v>783</v>
+      <c r="BF278">
+        <v>33218356</v>
       </c>
       <c r="BG278">
         <v>1040271</v>
@@ -57887,17 +57467,17 @@
       <c r="BI278">
         <v>58805</v>
       </c>
-      <c r="BJ278" t="s">
-        <v>814</v>
-      </c>
-      <c r="BK278" t="s">
-        <v>845</v>
-      </c>
-      <c r="BL278" t="s">
-        <v>876</v>
-      </c>
-      <c r="BM278" t="s">
-        <v>907</v>
+      <c r="BJ278">
+        <v>1.228046112</v>
+      </c>
+      <c r="BK278">
+        <v>1.228046157</v>
+      </c>
+      <c r="BL278">
+        <v>1.228046196</v>
+      </c>
+      <c r="BM278">
+        <v>1.228046121</v>
       </c>
     </row>
     <row r="279" spans="1:65">
@@ -58072,8 +57652,8 @@
       <c r="BE279">
         <v>1000</v>
       </c>
-      <c r="BF279" t="s">
-        <v>784</v>
+      <c r="BF279">
+        <v>33215351</v>
       </c>
       <c r="BG279">
         <v>5839079</v>
@@ -58084,17 +57664,17 @@
       <c r="BI279">
         <v>58805</v>
       </c>
-      <c r="BJ279" t="s">
-        <v>815</v>
-      </c>
-      <c r="BK279" t="s">
-        <v>846</v>
-      </c>
-      <c r="BL279" t="s">
-        <v>877</v>
-      </c>
-      <c r="BM279" t="s">
-        <v>908</v>
+      <c r="BJ279">
+        <v>1.227992903</v>
+      </c>
+      <c r="BK279">
+        <v>1.227992948</v>
+      </c>
+      <c r="BL279">
+        <v>1.227992987</v>
+      </c>
+      <c r="BM279">
+        <v>1.227992912</v>
       </c>
     </row>
     <row r="280" spans="1:65">
@@ -58269,8 +57849,8 @@
       <c r="BE280">
         <v>1000</v>
       </c>
-      <c r="BF280" t="s">
-        <v>785</v>
+      <c r="BF280">
+        <v>33211630</v>
       </c>
       <c r="BG280">
         <v>198137</v>
@@ -58281,17 +57861,17 @@
       <c r="BI280">
         <v>58805</v>
       </c>
-      <c r="BJ280" t="s">
-        <v>816</v>
-      </c>
-      <c r="BK280" t="s">
-        <v>847</v>
-      </c>
-      <c r="BL280" t="s">
-        <v>878</v>
-      </c>
-      <c r="BM280" t="s">
-        <v>909</v>
+      <c r="BJ280">
+        <v>1.227924794</v>
+      </c>
+      <c r="BK280">
+        <v>1.227924804</v>
+      </c>
+      <c r="BL280">
+        <v>1.227924793</v>
+      </c>
+      <c r="BM280">
+        <v>1.227924803</v>
       </c>
     </row>
     <row r="281" spans="1:65">
@@ -58466,8 +58046,8 @@
       <c r="BE281">
         <v>1000</v>
       </c>
-      <c r="BF281" t="s">
-        <v>786</v>
+      <c r="BF281">
+        <v>33213826</v>
       </c>
       <c r="BG281">
         <v>328197</v>
@@ -58478,17 +58058,17 @@
       <c r="BI281">
         <v>58805</v>
       </c>
-      <c r="BJ281" t="s">
-        <v>817</v>
-      </c>
-      <c r="BK281" t="s">
-        <v>848</v>
-      </c>
-      <c r="BL281" t="s">
-        <v>879</v>
-      </c>
-      <c r="BM281" t="s">
-        <v>910</v>
+      <c r="BJ281">
+        <v>1.227964405</v>
+      </c>
+      <c r="BK281">
+        <v>1.22796445</v>
+      </c>
+      <c r="BL281">
+        <v>1.227964489</v>
+      </c>
+      <c r="BM281">
+        <v>1.227964414</v>
       </c>
     </row>
     <row r="282" spans="1:65">
@@ -58663,8 +58243,8 @@
       <c r="BE282">
         <v>1000</v>
       </c>
-      <c r="BF282" t="s">
-        <v>787</v>
+      <c r="BF282">
+        <v>33215967</v>
       </c>
       <c r="BG282">
         <v>1222679</v>
@@ -58675,17 +58255,17 @@
       <c r="BI282">
         <v>58805</v>
       </c>
-      <c r="BJ282" t="s">
-        <v>818</v>
-      </c>
-      <c r="BK282" t="s">
-        <v>849</v>
-      </c>
-      <c r="BL282" t="s">
-        <v>880</v>
-      </c>
-      <c r="BM282" t="s">
-        <v>911</v>
+      <c r="BJ282">
+        <v>1.228004524</v>
+      </c>
+      <c r="BK282">
+        <v>1.228004569</v>
+      </c>
+      <c r="BL282">
+        <v>1.228004608</v>
+      </c>
+      <c r="BM282">
+        <v>1.228004533</v>
       </c>
     </row>
     <row r="283" spans="1:65">
@@ -58860,8 +58440,8 @@
       <c r="BE283">
         <v>1000</v>
       </c>
-      <c r="BF283" t="s">
-        <v>788</v>
+      <c r="BF283">
+        <v>33227648</v>
       </c>
       <c r="BG283">
         <v>13442344</v>
@@ -58872,17 +58452,17 @@
       <c r="BI283">
         <v>58805</v>
       </c>
-      <c r="BJ283" t="s">
-        <v>819</v>
-      </c>
-      <c r="BK283" t="s">
-        <v>850</v>
-      </c>
-      <c r="BL283" t="s">
-        <v>881</v>
-      </c>
-      <c r="BM283" t="s">
-        <v>912</v>
+      <c r="BJ283">
+        <v>1.228182098</v>
+      </c>
+      <c r="BK283">
+        <v>1.228182143</v>
+      </c>
+      <c r="BL283">
+        <v>1.228182182</v>
+      </c>
+      <c r="BM283">
+        <v>1.228182107</v>
       </c>
     </row>
     <row r="284" spans="1:65">
@@ -59057,8 +58637,8 @@
       <c r="BE284">
         <v>1000</v>
       </c>
-      <c r="BF284" t="s">
-        <v>789</v>
+      <c r="BF284">
+        <v>33226350</v>
       </c>
       <c r="BG284">
         <v>335852</v>
@@ -59069,17 +58649,17 @@
       <c r="BI284">
         <v>58805</v>
       </c>
-      <c r="BJ284" t="s">
-        <v>820</v>
-      </c>
-      <c r="BK284" t="s">
-        <v>851</v>
-      </c>
-      <c r="BL284" t="s">
-        <v>882</v>
-      </c>
-      <c r="BM284" t="s">
-        <v>913</v>
+      <c r="BJ284">
+        <v>1.228244558</v>
+      </c>
+      <c r="BK284">
+        <v>1.228244561</v>
+      </c>
+      <c r="BL284">
+        <v>1.228244606</v>
+      </c>
+      <c r="BM284">
+        <v>1.228244607</v>
       </c>
     </row>
     <row r="285" spans="1:65">
@@ -59254,8 +58834,8 @@
       <c r="BE285">
         <v>1000</v>
       </c>
-      <c r="BF285" t="s">
-        <v>790</v>
+      <c r="BF285">
+        <v>33193195</v>
       </c>
       <c r="BG285">
         <v>230910</v>
@@ -59266,17 +58846,17 @@
       <c r="BI285">
         <v>58805</v>
       </c>
-      <c r="BJ285" t="s">
-        <v>821</v>
-      </c>
-      <c r="BK285" t="s">
-        <v>852</v>
-      </c>
-      <c r="BL285" t="s">
-        <v>883</v>
-      </c>
-      <c r="BM285" t="s">
-        <v>914</v>
+      <c r="BJ285">
+        <v>1.227621419</v>
+      </c>
+      <c r="BK285">
+        <v>1.227621464</v>
+      </c>
+      <c r="BL285">
+        <v>1.227621503</v>
+      </c>
+      <c r="BM285">
+        <v>1.227621428</v>
       </c>
     </row>
     <row r="286" spans="1:65">
@@ -59451,8 +59031,8 @@
       <c r="BE286">
         <v>980</v>
       </c>
-      <c r="BF286" t="s">
-        <v>791</v>
+      <c r="BF286">
+        <v>33193199</v>
       </c>
       <c r="BG286">
         <v>328957</v>
@@ -59463,17 +59043,17 @@
       <c r="BI286">
         <v>58805</v>
       </c>
-      <c r="BJ286" t="s">
-        <v>822</v>
-      </c>
-      <c r="BK286" t="s">
-        <v>853</v>
-      </c>
-      <c r="BL286" t="s">
-        <v>884</v>
-      </c>
-      <c r="BM286" t="s">
-        <v>915</v>
+      <c r="BJ286">
+        <v>1.227621245</v>
+      </c>
+      <c r="BK286">
+        <v>1.227621291</v>
+      </c>
+      <c r="BL286">
+        <v>1.227621331</v>
+      </c>
+      <c r="BM286">
+        <v>1.227621254</v>
       </c>
     </row>
     <row r="287" spans="1:65">
@@ -59493,37 +59073,37 @@
         <v>761</v>
       </c>
       <c r="F287">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="G287">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H287">
+        <v>3.75</v>
+      </c>
+      <c r="I287">
+        <v>3.9</v>
+      </c>
+      <c r="J287">
         <v>3.7</v>
-      </c>
-      <c r="I287">
-        <v>4.1</v>
-      </c>
-      <c r="J287">
-        <v>3.5</v>
       </c>
       <c r="K287">
         <v>3.8</v>
       </c>
       <c r="L287">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="M287">
+        <v>1.98</v>
+      </c>
+      <c r="N287">
+        <v>2.02</v>
+      </c>
+      <c r="O287">
         <v>2.04</v>
       </c>
-      <c r="N287">
-        <v>1.96</v>
-      </c>
-      <c r="O287">
-        <v>2.1</v>
-      </c>
       <c r="P287">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q287">
         <v>1.93</v>
@@ -59532,10 +59112,10 @@
         <v>2.08</v>
       </c>
       <c r="S287">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T287">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="U287">
         <v>14</v>
@@ -59550,7 +59130,7 @@
         <v>17</v>
       </c>
       <c r="Y287">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z287">
         <v>7.6</v>
@@ -59565,7 +59145,7 @@
         <v>10.5</v>
       </c>
       <c r="AD287">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE287">
         <v>8.800000000000001</v>
@@ -59577,16 +59157,16 @@
         <v>17</v>
       </c>
       <c r="AH287">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AI287">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ287">
         <v>11</v>
       </c>
       <c r="AK287">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL287">
         <v>9.6</v>
@@ -59595,7 +59175,7 @@
         <v>12</v>
       </c>
       <c r="AN287">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO287">
         <v>20</v>
@@ -59610,13 +59190,13 @@
         <v>21</v>
       </c>
       <c r="AS287">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT287">
         <v>19.5</v>
       </c>
       <c r="AU287">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV287">
         <v>32</v>
@@ -59625,31 +59205,31 @@
         <v>42</v>
       </c>
       <c r="AX287">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AY287">
         <v>980</v>
       </c>
       <c r="AZ287">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="BA287">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="BB287">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BC287">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="BD287">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE287">
         <v>1000</v>
       </c>
       <c r="BF287" t="s">
-        <v>792</v>
+        <v>764</v>
       </c>
       <c r="BG287">
         <v>5271441</v>
@@ -59661,16 +59241,16 @@
         <v>58805</v>
       </c>
       <c r="BJ287" t="s">
-        <v>823</v>
+        <v>767</v>
       </c>
       <c r="BK287" t="s">
-        <v>854</v>
+        <v>770</v>
       </c>
       <c r="BL287" t="s">
-        <v>885</v>
+        <v>773</v>
       </c>
       <c r="BM287" t="s">
-        <v>916</v>
+        <v>776</v>
       </c>
     </row>
     <row r="288" spans="1:65">
@@ -59690,34 +59270,34 @@
         <v>762</v>
       </c>
       <c r="F288">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="G288">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="H288">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I288">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J288">
         <v>4.1</v>
       </c>
       <c r="K288">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L288">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="M288">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="N288">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="O288">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="P288">
         <v>1.75</v>
@@ -59732,7 +59312,7 @@
         <v>2.32</v>
       </c>
       <c r="T288">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U288">
         <v>980</v>
@@ -59822,7 +59402,7 @@
         <v>980</v>
       </c>
       <c r="AX288">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="AY288">
         <v>1000</v>
@@ -59846,7 +59426,7 @@
         <v>1000</v>
       </c>
       <c r="BF288" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
       <c r="BG288">
         <v>12104874</v>
@@ -59858,16 +59438,16 @@
         <v>58805</v>
       </c>
       <c r="BJ288" t="s">
-        <v>824</v>
+        <v>768</v>
       </c>
       <c r="BK288" t="s">
-        <v>855</v>
+        <v>771</v>
       </c>
       <c r="BL288" t="s">
-        <v>886</v>
+        <v>774</v>
       </c>
       <c r="BM288" t="s">
-        <v>917</v>
+        <v>777</v>
       </c>
     </row>
     <row r="289" spans="1:65">
@@ -59887,7 +59467,7 @@
         <v>763</v>
       </c>
       <c r="F289">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G289">
         <v>1.2</v>
@@ -59896,28 +59476,28 @@
         <v>19.5</v>
       </c>
       <c r="I289">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J289">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K289">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L289">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="M289">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N289">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="O289">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="P289">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="Q289">
         <v>3.05</v>
@@ -59926,28 +59506,28 @@
         <v>1.49</v>
       </c>
       <c r="S289">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="T289">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="U289">
         <v>980</v>
       </c>
       <c r="V289">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="W289">
         <v>980</v>
       </c>
       <c r="X289">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y289">
         <v>1000</v>
       </c>
       <c r="Z289">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AA289">
         <v>1000</v>
@@ -59959,19 +59539,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD289">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE289">
         <v>980</v>
       </c>
       <c r="AF289">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AG289">
         <v>980</v>
       </c>
       <c r="AH289">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AI289">
         <v>1000</v>
@@ -59983,19 +59563,19 @@
         <v>7.2</v>
       </c>
       <c r="AL289">
-        <v>5.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM289">
         <v>980</v>
       </c>
       <c r="AN289">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AO289">
         <v>980</v>
       </c>
       <c r="AP289">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AQ289">
         <v>1000</v>
@@ -60007,43 +59587,43 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AT289">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AU289">
         <v>980</v>
       </c>
       <c r="AV289">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AW289">
         <v>980</v>
       </c>
       <c r="AX289">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AY289">
         <v>1000</v>
       </c>
       <c r="AZ289">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="BA289">
         <v>4.2</v>
       </c>
       <c r="BB289">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BC289">
         <v>1000</v>
       </c>
       <c r="BD289">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BE289">
         <v>1000</v>
       </c>
       <c r="BF289" t="s">
-        <v>794</v>
+        <v>766</v>
       </c>
       <c r="BG289">
         <v>3636903</v>
@@ -60055,16 +59635,16 @@
         <v>58805</v>
       </c>
       <c r="BJ289" t="s">
-        <v>825</v>
+        <v>769</v>
       </c>
       <c r="BK289" t="s">
-        <v>856</v>
+        <v>772</v>
       </c>
       <c r="BL289" t="s">
-        <v>887</v>
+        <v>775</v>
       </c>
       <c r="BM289" t="s">
-        <v>918</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>
